--- a/Project/Database/tindakan_anak.xlsx
+++ b/Project/Database/tindakan_anak.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S1 Sistem Informasi 2012\Semester 6\Pengembangan Sistem Informasi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7770"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Tindakan" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,29 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>id_tindakan</t>
-  </si>
-  <si>
-    <t>spesialisasi</t>
-  </si>
-  <si>
-    <t>nama_tindakan</t>
-  </si>
-  <si>
-    <t>tarif</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Pemeriksaan</t>
   </si>
   <si>
-    <t>pemeriksaan biasa untuk menghasilkan diagnosa</t>
-  </si>
-  <si>
     <t>Anak</t>
   </si>
   <si>
@@ -63,19 +40,25 @@
     <t>Pemberian imunisasi</t>
   </si>
   <si>
-    <t>Pemberian resep</t>
-  </si>
-  <si>
-    <t>Resep obat</t>
-  </si>
-  <si>
-    <t>Antibiotik</t>
+    <t>Pemeriksaan biasa untuk menghasilkan diagnosa</t>
+  </si>
+  <si>
+    <t>Pemberian imunisasi campak, difteri, tuberkulosis, dan polio</t>
+  </si>
+  <si>
+    <t>T0001</t>
+  </si>
+  <si>
+    <t>T0002</t>
+  </si>
+  <si>
+    <t>T0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -169,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,112 +364,85 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>25000</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>50000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50000</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -494,18 +450,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
